--- a/问卷结果/问卷结果.xlsx
+++ b/问卷结果/问卷结果.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView windowWidth="23040" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$1:$N$235</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="884">
   <si>
     <t>序号</t>
   </si>
@@ -59,10 +61,30 @@
     <t>8.您认为宗祠文化有传承下去的必要吗？</t>
   </si>
   <si>
-    <t>9.您认为宗祠文化的传承面临的最大困境是什么？</t>
-  </si>
-  <si>
-    <t>10.对于宗祠文化的保护与发展，您还有什么独到的见解？</t>
+    <r>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您认为宗祠文化的传承面临的最大困境是什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对于宗祠文化的保护与发展，您还有什么独到的见解？</t>
+    </r>
   </si>
   <si>
     <t>1</t>
@@ -2448,28 +2470,601 @@
   </si>
   <si>
     <t>假如你是李华，你的英国网友Tom想了解你们的宗祠文化，请你发一份调查问卷给他。</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>2022/7/14 8:06:43</t>
+  </si>
+  <si>
+    <t>111.23.117.15(湖南-岳阳)</t>
+  </si>
+  <si>
+    <t>假如你是李华，不知道是哪里的网友想了解中国的宗祠文化，请你发一份问卷给他。</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>2022/7/14 8:58:07</t>
+  </si>
+  <si>
+    <t>223.147.87.21(湖南-衡阳)</t>
+  </si>
+  <si>
+    <t>多积极推广，文化传承</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>2022/7/14 9:06:19</t>
+  </si>
+  <si>
+    <t>23秒</t>
+  </si>
+  <si>
+    <t>111.8.250.148(湖南-岳阳)</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>2022/7/14 9:12:33</t>
+  </si>
+  <si>
+    <t>721秒</t>
+  </si>
+  <si>
+    <t>110.52.226.53(湖南-岳阳)</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>2022/7/14 9:13:17</t>
+  </si>
+  <si>
+    <t>223.153.187.6(湖南-张家界)</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>2022/7/14 9:13:18</t>
+  </si>
+  <si>
+    <t>19秒</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>2022/7/14 9:14:50</t>
+  </si>
+  <si>
+    <t>127秒</t>
+  </si>
+  <si>
+    <t>175.7.40.23(湖南-岳阳)</t>
+  </si>
+  <si>
+    <t>太少见了。生活中很难遇见关于宗祠的文化</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>2022/7/14 9:41:29</t>
+  </si>
+  <si>
+    <t>27.149.85.210(福建-福州)</t>
+  </si>
+  <si>
+    <t>从小培养</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>2022/7/14 10:05:16</t>
+  </si>
+  <si>
+    <t>175.10.52.198(湖南-长沙)</t>
+  </si>
+  <si>
+    <t>鼓励与政府合作，增加家族意识</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>2022/7/14 10:13:14</t>
+  </si>
+  <si>
+    <t>17秒</t>
+  </si>
+  <si>
+    <t>223.153.160.181(湖南-张家界)</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>2022/7/14 10:18:13</t>
+  </si>
+  <si>
+    <t>223.155.97.0(湖南-邵阳)</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>2022/7/14 10:51:06</t>
+  </si>
+  <si>
+    <t>242秒</t>
+  </si>
+  <si>
+    <t>120.228.1.22(湖南-长沙)</t>
+  </si>
+  <si>
+    <t>政府大力宣传，吸引外来游客，将宗祠文化的信息网络化，提高知名度</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>2022/7/14 10:54:16</t>
+  </si>
+  <si>
+    <t>223.148.18.10(湖南-株洲)</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>2022/7/14 11:17:56</t>
+  </si>
+  <si>
+    <t>91秒</t>
+  </si>
+  <si>
+    <t>110.52.71.151(湖南-郴州)</t>
+  </si>
+  <si>
+    <t>建议文明旅游</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>2022/7/14 11:24:05</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>2022/7/14 11:24:19</t>
+  </si>
+  <si>
+    <t>9秒</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>2022/7/14 11:41:28</t>
+  </si>
+  <si>
+    <t>124.229.126.158(湖南-岳阳)</t>
+  </si>
+  <si>
+    <t>发展特色产业</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>2022/7/14 12:06:42</t>
+  </si>
+  <si>
+    <t>113.246.55.130(湖南-长沙)</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>2022/7/14 12:07:51</t>
+  </si>
+  <si>
+    <t>223.104.66.213(广东-东莞)</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>2022/7/14 12:46:51</t>
+  </si>
+  <si>
+    <t>120.227.28.107(湖南-长沙)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2477,111 +3072,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
+  <cellStyleXfs count="55">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="51" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
+  <cellStyles count="55">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="Currency" xfId="12"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="Currency [0]" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
+    <cellStyle name="汇总" xfId="32" builtinId="25"/>
+    <cellStyle name="好" xfId="33" builtinId="26"/>
+    <cellStyle name="适中" xfId="34" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+    <cellStyle name="Normal" xfId="51"/>
+    <cellStyle name="Percent" xfId="52"/>
+    <cellStyle name="Comma [0]" xfId="53"/>
+    <cellStyle name="Comma" xfId="54"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2899,35 +3712,37 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView tabSelected="1" topLeftCell="M211" workbookViewId="0">
+      <selection activeCell="P227" sqref="P227"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.28571428571429" customWidth="1"/>
-    <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="4.28703703703704" customWidth="1"/>
+    <col min="2" max="2" width="17.1388888888889" customWidth="1"/>
     <col min="3" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="23.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="11.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="23.8611111111111" customWidth="1"/>
+    <col min="7" max="7" width="11.4259259259259" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="15.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="21.4285714285714" customWidth="1"/>
-    <col min="11" max="11" width="18.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="15.712962962963" customWidth="1"/>
+    <col min="10" max="10" width="21.4259259259259" customWidth="1"/>
+    <col min="11" max="11" width="18.5740740740741" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="51.4285714285714" customWidth="1"/>
-    <col min="14" max="14" width="27.1428571428571" customWidth="1"/>
-    <col min="15" max="15" width="32.8571428571429" customWidth="1"/>
-    <col min="16" max="16" width="91.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="51.4259259259259" customWidth="1"/>
+    <col min="14" max="14" width="27.1388888888889" customWidth="1"/>
+    <col min="15" max="15" width="32.8611111111111" customWidth="1"/>
+    <col min="16" max="16" width="91.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2970,14 +3785,14 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3027,7 +3842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -3077,7 +3892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12.75">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -3127,7 +3942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.75">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3177,7 +3992,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.75">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -3227,7 +4042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12.75">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -3277,7 +4092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.75">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -3327,7 +4142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.75">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -3377,7 +4192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3427,7 +4242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.75">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -3477,7 +4292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -3527,7 +4342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -3577,7 +4392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.75">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -3627,7 +4442,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.75">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -3677,7 +4492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -3727,7 +4542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="12.75">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -3773,11 +4588,11 @@
       <c r="O17" t="s">
         <v>28</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="12.75">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -3827,7 +4642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="12.75">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -3877,7 +4692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -3927,7 +4742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="12.75">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -3977,7 +4792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="12.75">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -4027,7 +4842,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="12.75">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -4077,7 +4892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="12.75">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -4127,7 +4942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="12.75">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -4177,7 +4992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="12.75">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -4227,7 +5042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="12.75">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -4277,7 +5092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="12.75">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -4327,7 +5142,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="12.75">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -4377,7 +5192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="12.75">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -4427,7 +5242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="12.75">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -4477,7 +5292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="12.75">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -4527,7 +5342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="12.75">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -4577,7 +5392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="12.75">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>162</v>
       </c>
@@ -4627,7 +5442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="12.75">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>166</v>
       </c>
@@ -4677,7 +5492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="12.75">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>170</v>
       </c>
@@ -4727,7 +5542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="12.75">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>173</v>
       </c>
@@ -4773,11 +5588,11 @@
       <c r="O37" t="s">
         <v>41</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="12.75">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>178</v>
       </c>
@@ -4823,11 +5638,11 @@
       <c r="O38" t="s">
         <v>57</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="12.75">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -4877,7 +5692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="12.75">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -4927,7 +5742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="12.75">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>192</v>
       </c>
@@ -4973,11 +5788,11 @@
       <c r="O41" t="s">
         <v>36</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="12.75">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>197</v>
       </c>
@@ -5027,7 +5842,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="12.75">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -5077,7 +5892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="12.75">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>204</v>
       </c>
@@ -5127,7 +5942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="12.75">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>207</v>
       </c>
@@ -5177,7 +5992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="12.75">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -5227,7 +6042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="12.75">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -5277,7 +6092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="12.75">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>217</v>
       </c>
@@ -5327,7 +6142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="12.75">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -5377,7 +6192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="12.75">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>225</v>
       </c>
@@ -5427,7 +6242,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="12.75">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>229</v>
       </c>
@@ -5477,7 +6292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="12.75">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>233</v>
       </c>
@@ -5527,7 +6342,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="12.75">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>237</v>
       </c>
@@ -5577,7 +6392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="12.75">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>240</v>
       </c>
@@ -5627,7 +6442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="12.75">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>244</v>
       </c>
@@ -5677,7 +6492,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="12.75">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>249</v>
       </c>
@@ -5727,7 +6542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="12.75">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>252</v>
       </c>
@@ -5777,7 +6592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="12.75">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>255</v>
       </c>
@@ -5827,7 +6642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="12.75">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>259</v>
       </c>
@@ -5877,7 +6692,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="12.75">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>262</v>
       </c>
@@ -5927,7 +6742,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="12.75">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>267</v>
       </c>
@@ -5977,7 +6792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="12.75">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>270</v>
       </c>
@@ -6027,7 +6842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="12.75">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>274</v>
       </c>
@@ -6077,7 +6892,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="12.75">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>277</v>
       </c>
@@ -6127,7 +6942,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="12.75">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>281</v>
       </c>
@@ -6177,7 +6992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="12.75">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
         <v>285</v>
       </c>
@@ -6227,7 +7042,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="12.75">
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
         <v>288</v>
       </c>
@@ -6277,7 +7092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="12.75">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
         <v>291</v>
       </c>
@@ -6327,7 +7142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="12.75">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
         <v>294</v>
       </c>
@@ -6377,7 +7192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="12.75">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
         <v>298</v>
       </c>
@@ -6423,11 +7238,11 @@
       <c r="O70" t="s">
         <v>36</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P70" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="12.75">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
         <v>303</v>
       </c>
@@ -6477,7 +7292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="12.75">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
         <v>306</v>
       </c>
@@ -6527,7 +7342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="12.75">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
         <v>309</v>
       </c>
@@ -6577,7 +7392,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="12.75">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>314</v>
       </c>
@@ -6623,11 +7438,11 @@
       <c r="O74" t="s">
         <v>106</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P74" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="12.75">
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
         <v>319</v>
       </c>
@@ -6677,7 +7492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="12.75">
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
         <v>322</v>
       </c>
@@ -6723,11 +7538,11 @@
       <c r="O76" t="s">
         <v>28</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P76" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="12.75">
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
         <v>327</v>
       </c>
@@ -6777,7 +7592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="12.75">
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
         <v>330</v>
       </c>
@@ -6827,7 +7642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="12.75">
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
         <v>333</v>
       </c>
@@ -6877,7 +7692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="12.75">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>337</v>
       </c>
@@ -6927,7 +7742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="12.75">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>342</v>
       </c>
@@ -6977,7 +7792,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="12.75">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
         <v>345</v>
       </c>
@@ -7027,7 +7842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="12.75">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
         <v>349</v>
       </c>
@@ -7077,7 +7892,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="12.75">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
         <v>353</v>
       </c>
@@ -7127,7 +7942,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="12.75">
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
         <v>357</v>
       </c>
@@ -7173,11 +7988,11 @@
       <c r="O85" t="s">
         <v>57</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P85" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="12.75">
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
         <v>362</v>
       </c>
@@ -7223,11 +8038,11 @@
       <c r="O86" t="s">
         <v>57</v>
       </c>
-      <c r="P86" t="s">
+      <c r="P86" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="12.75">
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
         <v>367</v>
       </c>
@@ -7277,7 +8092,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="12.75">
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
         <v>372</v>
       </c>
@@ -7327,7 +8142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="12.75">
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
         <v>376</v>
       </c>
@@ -7377,7 +8192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="12.75">
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
         <v>379</v>
       </c>
@@ -7427,7 +8242,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="12.75">
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
         <v>383</v>
       </c>
@@ -7477,7 +8292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="12.75">
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
         <v>386</v>
       </c>
@@ -7527,7 +8342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="12.75">
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
         <v>389</v>
       </c>
@@ -7577,7 +8392,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="12.75">
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
         <v>394</v>
       </c>
@@ -7627,7 +8442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="12.75">
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
         <v>397</v>
       </c>
@@ -7677,7 +8492,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="12.75">
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
         <v>400</v>
       </c>
@@ -7727,7 +8542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="12.75">
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
         <v>404</v>
       </c>
@@ -7777,7 +8592,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="12.75">
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
         <v>407</v>
       </c>
@@ -7827,7 +8642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="12.75">
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
         <v>410</v>
       </c>
@@ -7877,7 +8692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="12.75">
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
         <v>414</v>
       </c>
@@ -7927,7 +8742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="12.75">
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
         <v>417</v>
       </c>
@@ -7973,11 +8788,11 @@
       <c r="O101" t="s">
         <v>106</v>
       </c>
-      <c r="P101" t="s">
+      <c r="P101" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="12.75">
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
         <v>424</v>
       </c>
@@ -8027,7 +8842,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="12.75">
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
         <v>429</v>
       </c>
@@ -8077,7 +8892,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="12.75">
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
         <v>434</v>
       </c>
@@ -8127,7 +8942,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="12.75">
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
         <v>439</v>
       </c>
@@ -8177,7 +8992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="12.75">
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
         <v>442</v>
       </c>
@@ -8227,7 +9042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="12.75">
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
         <v>445</v>
       </c>
@@ -8277,7 +9092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="12.75">
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
         <v>448</v>
       </c>
@@ -8327,7 +9142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="12.75">
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
         <v>451</v>
       </c>
@@ -8377,7 +9192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="12.75">
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
         <v>454</v>
       </c>
@@ -8427,7 +9242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="12.75">
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
         <v>457</v>
       </c>
@@ -8477,7 +9292,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="12.75">
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
         <v>459</v>
       </c>
@@ -8527,7 +9342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="12.75">
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
         <v>462</v>
       </c>
@@ -8577,7 +9392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="12.75">
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
         <v>466</v>
       </c>
@@ -8627,7 +9442,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="12.75">
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
         <v>470</v>
       </c>
@@ -8677,7 +9492,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="12.75">
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
         <v>474</v>
       </c>
@@ -8727,7 +9542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="12.75">
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
         <v>477</v>
       </c>
@@ -8777,7 +9592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="12.75">
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
         <v>480</v>
       </c>
@@ -8827,7 +9642,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="12.75">
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
         <v>484</v>
       </c>
@@ -8877,7 +9692,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="12.75">
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
         <v>488</v>
       </c>
@@ -8927,7 +9742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="12.75">
+    <row r="121" spans="1:16">
       <c r="A121" t="s">
         <v>490</v>
       </c>
@@ -8977,7 +9792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="12.75">
+    <row r="122" spans="1:16">
       <c r="A122" t="s">
         <v>493</v>
       </c>
@@ -9027,7 +9842,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="12.75">
+    <row r="123" spans="1:16">
       <c r="A123" t="s">
         <v>496</v>
       </c>
@@ -9077,7 +9892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="12.75">
+    <row r="124" spans="1:16">
       <c r="A124" t="s">
         <v>499</v>
       </c>
@@ -9127,7 +9942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="12.75">
+    <row r="125" spans="1:16">
       <c r="A125" t="s">
         <v>503</v>
       </c>
@@ -9177,7 +9992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="12.75">
+    <row r="126" spans="1:16">
       <c r="A126" t="s">
         <v>507</v>
       </c>
@@ -9227,7 +10042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="12.75">
+    <row r="127" spans="1:16">
       <c r="A127" t="s">
         <v>510</v>
       </c>
@@ -9277,7 +10092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="12.75">
+    <row r="128" spans="1:16">
       <c r="A128" t="s">
         <v>514</v>
       </c>
@@ -9327,7 +10142,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="12.75">
+    <row r="129" spans="1:16">
       <c r="A129" t="s">
         <v>517</v>
       </c>
@@ -9377,7 +10192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="12.75">
+    <row r="130" spans="1:16">
       <c r="A130" t="s">
         <v>520</v>
       </c>
@@ -9427,7 +10242,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="12.75">
+    <row r="131" spans="1:16">
       <c r="A131" t="s">
         <v>524</v>
       </c>
@@ -9473,11 +10288,11 @@
       <c r="O131" t="s">
         <v>41</v>
       </c>
-      <c r="P131" t="s">
+      <c r="P131" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="12.75">
+    <row r="132" spans="1:16">
       <c r="A132" t="s">
         <v>528</v>
       </c>
@@ -9527,7 +10342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="12.75">
+    <row r="133" spans="1:16">
       <c r="A133" t="s">
         <v>531</v>
       </c>
@@ -9577,7 +10392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="12.75">
+    <row r="134" spans="1:16">
       <c r="A134" t="s">
         <v>535</v>
       </c>
@@ -9627,7 +10442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="12.75">
+    <row r="135" spans="1:16">
       <c r="A135" t="s">
         <v>539</v>
       </c>
@@ -9677,7 +10492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="12.75">
+    <row r="136" spans="1:16">
       <c r="A136" t="s">
         <v>542</v>
       </c>
@@ -9727,7 +10542,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="12.75">
+    <row r="137" spans="1:16">
       <c r="A137" t="s">
         <v>547</v>
       </c>
@@ -9777,7 +10592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="12.75">
+    <row r="138" spans="1:16">
       <c r="A138" t="s">
         <v>550</v>
       </c>
@@ -9827,7 +10642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="12.75">
+    <row r="139" spans="1:16">
       <c r="A139" t="s">
         <v>553</v>
       </c>
@@ -9877,7 +10692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="12.75">
+    <row r="140" spans="1:16">
       <c r="A140" t="s">
         <v>556</v>
       </c>
@@ -9927,7 +10742,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="12.75">
+    <row r="141" spans="1:16">
       <c r="A141" t="s">
         <v>559</v>
       </c>
@@ -9977,7 +10792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="12.75">
+    <row r="142" spans="1:16">
       <c r="A142" t="s">
         <v>561</v>
       </c>
@@ -10027,7 +10842,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="12.75">
+    <row r="143" spans="1:16">
       <c r="A143" t="s">
         <v>564</v>
       </c>
@@ -10077,7 +10892,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="12.75">
+    <row r="144" spans="1:16">
       <c r="A144" t="s">
         <v>569</v>
       </c>
@@ -10127,7 +10942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="12.75">
+    <row r="145" spans="1:16">
       <c r="A145" t="s">
         <v>572</v>
       </c>
@@ -10177,7 +10992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="12.75">
+    <row r="146" spans="1:16">
       <c r="A146" t="s">
         <v>576</v>
       </c>
@@ -10227,7 +11042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="12.75">
+    <row r="147" spans="1:16">
       <c r="A147" t="s">
         <v>579</v>
       </c>
@@ -10277,7 +11092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="12.75">
+    <row r="148" spans="1:16">
       <c r="A148" t="s">
         <v>582</v>
       </c>
@@ -10327,7 +11142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="12.75">
+    <row r="149" spans="1:16">
       <c r="A149" t="s">
         <v>585</v>
       </c>
@@ -10377,7 +11192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="12.75">
+    <row r="150" spans="1:16">
       <c r="A150" t="s">
         <v>589</v>
       </c>
@@ -10427,7 +11242,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="12.75">
+    <row r="151" spans="1:16">
       <c r="A151" t="s">
         <v>593</v>
       </c>
@@ -10477,7 +11292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="12.75">
+    <row r="152" spans="1:16">
       <c r="A152" t="s">
         <v>596</v>
       </c>
@@ -10527,7 +11342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="12.75">
+    <row r="153" spans="1:16">
       <c r="A153" t="s">
         <v>599</v>
       </c>
@@ -10577,7 +11392,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="12.75">
+    <row r="154" spans="1:16">
       <c r="A154" t="s">
         <v>604</v>
       </c>
@@ -10627,7 +11442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="12.75">
+    <row r="155" spans="1:16">
       <c r="A155" t="s">
         <v>607</v>
       </c>
@@ -10677,7 +11492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="12.75">
+    <row r="156" spans="1:16">
       <c r="A156" t="s">
         <v>610</v>
       </c>
@@ -10723,11 +11538,11 @@
       <c r="O156" t="s">
         <v>28</v>
       </c>
-      <c r="P156" t="s">
+      <c r="P156" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="12.75">
+    <row r="157" spans="1:16">
       <c r="A157" t="s">
         <v>614</v>
       </c>
@@ -10777,7 +11592,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="12.75">
+    <row r="158" spans="1:16">
       <c r="A158" t="s">
         <v>618</v>
       </c>
@@ -10827,7 +11642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="12.75">
+    <row r="159" spans="1:16">
       <c r="A159" t="s">
         <v>621</v>
       </c>
@@ -10877,7 +11692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="12.75">
+    <row r="160" spans="1:16">
       <c r="A160" t="s">
         <v>624</v>
       </c>
@@ -10927,7 +11742,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="12.75">
+    <row r="161" spans="1:16">
       <c r="A161" t="s">
         <v>629</v>
       </c>
@@ -10977,7 +11792,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="12.75">
+    <row r="162" spans="1:16">
       <c r="A162" t="s">
         <v>632</v>
       </c>
@@ -11027,7 +11842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="12.75">
+    <row r="163" spans="1:16">
       <c r="A163" t="s">
         <v>635</v>
       </c>
@@ -11077,7 +11892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="12.75">
+    <row r="164" spans="1:16">
       <c r="A164" t="s">
         <v>638</v>
       </c>
@@ -11127,7 +11942,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="12.75">
+    <row r="165" spans="1:16">
       <c r="A165" t="s">
         <v>642</v>
       </c>
@@ -11177,7 +11992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="12.75">
+    <row r="166" spans="1:16">
       <c r="A166" t="s">
         <v>645</v>
       </c>
@@ -11227,7 +12042,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="12.75">
+    <row r="167" spans="1:16">
       <c r="A167" t="s">
         <v>648</v>
       </c>
@@ -11277,7 +12092,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="12.75">
+    <row r="168" spans="1:16">
       <c r="A168" t="s">
         <v>651</v>
       </c>
@@ -11327,7 +12142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="12.75">
+    <row r="169" spans="1:16">
       <c r="A169" t="s">
         <v>653</v>
       </c>
@@ -11377,7 +12192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="12.75">
+    <row r="170" spans="1:16">
       <c r="A170" t="s">
         <v>656</v>
       </c>
@@ -11427,7 +12242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="12.75">
+    <row r="171" spans="1:16">
       <c r="A171" t="s">
         <v>659</v>
       </c>
@@ -11477,7 +12292,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="12.75">
+    <row r="172" spans="1:16">
       <c r="A172" t="s">
         <v>664</v>
       </c>
@@ -11527,7 +12342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="12.75">
+    <row r="173" spans="1:16">
       <c r="A173" t="s">
         <v>667</v>
       </c>
@@ -11577,7 +12392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="12.75">
+    <row r="174" spans="1:16">
       <c r="A174" t="s">
         <v>670</v>
       </c>
@@ -11627,7 +12442,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="12.75">
+    <row r="175" spans="1:16">
       <c r="A175" t="s">
         <v>673</v>
       </c>
@@ -11677,7 +12492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="12.75">
+    <row r="176" spans="1:16">
       <c r="A176" t="s">
         <v>677</v>
       </c>
@@ -11723,11 +12538,11 @@
       <c r="O176" t="s">
         <v>41</v>
       </c>
-      <c r="P176" t="s">
+      <c r="P176" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="12.75">
+    <row r="177" spans="1:16">
       <c r="A177" t="s">
         <v>681</v>
       </c>
@@ -11777,7 +12592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="12.75">
+    <row r="178" spans="1:16">
       <c r="A178" t="s">
         <v>685</v>
       </c>
@@ -11827,7 +12642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="12.75">
+    <row r="179" spans="1:16">
       <c r="A179" t="s">
         <v>688</v>
       </c>
@@ -11877,7 +12692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="12.75">
+    <row r="180" spans="1:16">
       <c r="A180" t="s">
         <v>692</v>
       </c>
@@ -11927,7 +12742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="12.75">
+    <row r="181" spans="1:16">
       <c r="A181" t="s">
         <v>695</v>
       </c>
@@ -11977,7 +12792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="12.75">
+    <row r="182" spans="1:16">
       <c r="A182" t="s">
         <v>698</v>
       </c>
@@ -12027,7 +12842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="12.75">
+    <row r="183" spans="1:16">
       <c r="A183" t="s">
         <v>701</v>
       </c>
@@ -12077,7 +12892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="12.75">
+    <row r="184" spans="1:16">
       <c r="A184" t="s">
         <v>705</v>
       </c>
@@ -12127,7 +12942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="12.75">
+    <row r="185" spans="1:16">
       <c r="A185" t="s">
         <v>709</v>
       </c>
@@ -12177,7 +12992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="12.75">
+    <row r="186" spans="1:16">
       <c r="A186" t="s">
         <v>712</v>
       </c>
@@ -12227,7 +13042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="12.75">
+    <row r="187" spans="1:16">
       <c r="A187" t="s">
         <v>715</v>
       </c>
@@ -12277,7 +13092,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="12.75">
+    <row r="188" spans="1:16">
       <c r="A188" t="s">
         <v>720</v>
       </c>
@@ -12327,7 +13142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="12.75">
+    <row r="189" spans="1:16">
       <c r="A189" t="s">
         <v>723</v>
       </c>
@@ -12377,7 +13192,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="12.75">
+    <row r="190" spans="1:16">
       <c r="A190" t="s">
         <v>727</v>
       </c>
@@ -12427,7 +13242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="12.75">
+    <row r="191" spans="1:16">
       <c r="A191" t="s">
         <v>730</v>
       </c>
@@ -12477,7 +13292,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="12.75">
+    <row r="192" spans="1:16">
       <c r="A192" t="s">
         <v>735</v>
       </c>
@@ -12527,7 +13342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="12.75">
+    <row r="193" spans="1:16">
       <c r="A193" t="s">
         <v>738</v>
       </c>
@@ -12577,7 +13392,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="12.75">
+    <row r="194" spans="1:16">
       <c r="A194" t="s">
         <v>742</v>
       </c>
@@ -12627,7 +13442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="12.75">
+    <row r="195" spans="1:16">
       <c r="A195" t="s">
         <v>745</v>
       </c>
@@ -12677,7 +13492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="12.75">
+    <row r="196" spans="1:16">
       <c r="A196" t="s">
         <v>748</v>
       </c>
@@ -12727,7 +13542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="12.75">
+    <row r="197" spans="1:16">
       <c r="A197" t="s">
         <v>751</v>
       </c>
@@ -12777,7 +13592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="12.75">
+    <row r="198" spans="1:16">
       <c r="A198" t="s">
         <v>754</v>
       </c>
@@ -12827,7 +13642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="12.75">
+    <row r="199" spans="1:16">
       <c r="A199" t="s">
         <v>756</v>
       </c>
@@ -12877,7 +13692,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="12.75">
+    <row r="200" spans="1:16">
       <c r="A200" t="s">
         <v>761</v>
       </c>
@@ -12927,7 +13742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="12.75">
+    <row r="201" spans="1:16">
       <c r="A201" t="s">
         <v>764</v>
       </c>
@@ -12977,7 +13792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="12.75">
+    <row r="202" spans="1:16">
       <c r="A202" t="s">
         <v>767</v>
       </c>
@@ -13027,7 +13842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="12.75">
+    <row r="203" spans="1:16">
       <c r="A203" t="s">
         <v>770</v>
       </c>
@@ -13077,7 +13892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="12.75">
+    <row r="204" spans="1:16">
       <c r="A204" t="s">
         <v>772</v>
       </c>
@@ -13127,7 +13942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="12.75">
+    <row r="205" spans="1:16">
       <c r="A205" t="s">
         <v>775</v>
       </c>
@@ -13177,7 +13992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="12.75">
+    <row r="206" spans="1:16">
       <c r="A206" t="s">
         <v>778</v>
       </c>
@@ -13227,7 +14042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="12.75">
+    <row r="207" spans="1:16">
       <c r="A207" t="s">
         <v>781</v>
       </c>
@@ -13277,7 +14092,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="12.75">
+    <row r="208" spans="1:16">
       <c r="A208" t="s">
         <v>785</v>
       </c>
@@ -13327,7 +14142,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="12.75">
+    <row r="209" spans="1:16">
       <c r="A209" t="s">
         <v>789</v>
       </c>
@@ -13377,7 +14192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="12.75">
+    <row r="210" spans="1:16">
       <c r="A210" t="s">
         <v>791</v>
       </c>
@@ -13427,7 +14242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="12.75">
+    <row r="211" spans="1:16">
       <c r="A211" t="s">
         <v>794</v>
       </c>
@@ -13477,7 +14292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="12.75">
+    <row r="212" spans="1:16">
       <c r="A212" t="s">
         <v>797</v>
       </c>
@@ -13527,7 +14342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="12.75">
+    <row r="213" spans="1:16">
       <c r="A213" t="s">
         <v>800</v>
       </c>
@@ -13577,7 +14392,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="12.75">
+    <row r="214" spans="1:16">
       <c r="A214" t="s">
         <v>803</v>
       </c>
@@ -13627,58 +14442,1059 @@
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="12.75">
-      <c r="A215" t="s">
+    <row r="215" s="1" customFormat="1" spans="1:16">
+      <c r="A215" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H215" t="s">
+      <c r="H215" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I215" t="s">
-        <v>24</v>
-      </c>
-      <c r="J215" t="s">
+      <c r="I215" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J215" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K215" t="s">
+      <c r="K215" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L215" t="s">
-        <v>27</v>
-      </c>
-      <c r="M215" t="s">
+      <c r="L215" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M215" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N215" t="s">
-        <v>24</v>
-      </c>
-      <c r="O215" t="s">
+      <c r="N215" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O215" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P215" t="s">
+      <c r="P215" s="1" t="s">
         <v>810</v>
+      </c>
+    </row>
+    <row r="216" s="1" customFormat="1" spans="1:16">
+      <c r="A216" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16">
+      <c r="A217" t="s">
+        <v>815</v>
+      </c>
+      <c r="B217" t="s">
+        <v>816</v>
+      </c>
+      <c r="C217" t="s">
+        <v>537</v>
+      </c>
+      <c r="D217" t="s">
+        <v>339</v>
+      </c>
+      <c r="E217" t="s">
+        <v>340</v>
+      </c>
+      <c r="F217" t="s">
+        <v>817</v>
+      </c>
+      <c r="G217" t="s">
+        <v>182</v>
+      </c>
+      <c r="H217" t="s">
+        <v>46</v>
+      </c>
+      <c r="I217" t="s">
+        <v>24</v>
+      </c>
+      <c r="J217" t="s">
+        <v>35</v>
+      </c>
+      <c r="K217" t="s">
+        <v>47</v>
+      </c>
+      <c r="L217" t="s">
+        <v>48</v>
+      </c>
+      <c r="M217" t="s">
+        <v>27</v>
+      </c>
+      <c r="N217" t="s">
+        <v>24</v>
+      </c>
+      <c r="O217" t="s">
+        <v>36</v>
+      </c>
+      <c r="P217" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16">
+      <c r="A218" t="s">
+        <v>819</v>
+      </c>
+      <c r="B218" t="s">
+        <v>820</v>
+      </c>
+      <c r="C218" t="s">
+        <v>821</v>
+      </c>
+      <c r="D218" t="s">
+        <v>339</v>
+      </c>
+      <c r="E218" t="s">
+        <v>340</v>
+      </c>
+      <c r="F218" t="s">
+        <v>822</v>
+      </c>
+      <c r="G218" t="s">
+        <v>182</v>
+      </c>
+      <c r="H218" t="s">
+        <v>46</v>
+      </c>
+      <c r="I218" t="s">
+        <v>24</v>
+      </c>
+      <c r="J218" t="s">
+        <v>421</v>
+      </c>
+      <c r="K218" t="s">
+        <v>422</v>
+      </c>
+      <c r="L218" t="s">
+        <v>48</v>
+      </c>
+      <c r="M218" t="s">
+        <v>48</v>
+      </c>
+      <c r="N218" t="s">
+        <v>24</v>
+      </c>
+      <c r="O218" t="s">
+        <v>36</v>
+      </c>
+      <c r="P218" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16">
+      <c r="A219" t="s">
+        <v>823</v>
+      </c>
+      <c r="B219" t="s">
+        <v>824</v>
+      </c>
+      <c r="C219" t="s">
+        <v>825</v>
+      </c>
+      <c r="D219" t="s">
+        <v>339</v>
+      </c>
+      <c r="E219" t="s">
+        <v>340</v>
+      </c>
+      <c r="F219" t="s">
+        <v>826</v>
+      </c>
+      <c r="G219" t="s">
+        <v>182</v>
+      </c>
+      <c r="H219" t="s">
+        <v>23</v>
+      </c>
+      <c r="I219" t="s">
+        <v>34</v>
+      </c>
+      <c r="J219" t="s">
+        <v>25</v>
+      </c>
+      <c r="K219" t="s">
+        <v>47</v>
+      </c>
+      <c r="L219" t="s">
+        <v>27</v>
+      </c>
+      <c r="M219" t="s">
+        <v>48</v>
+      </c>
+      <c r="N219" t="s">
+        <v>24</v>
+      </c>
+      <c r="O219" t="s">
+        <v>57</v>
+      </c>
+      <c r="P219" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16">
+      <c r="A220" t="s">
+        <v>827</v>
+      </c>
+      <c r="B220" t="s">
+        <v>828</v>
+      </c>
+      <c r="C220" t="s">
+        <v>112</v>
+      </c>
+      <c r="D220" t="s">
+        <v>339</v>
+      </c>
+      <c r="E220" t="s">
+        <v>340</v>
+      </c>
+      <c r="F220" t="s">
+        <v>829</v>
+      </c>
+      <c r="G220" t="s">
+        <v>182</v>
+      </c>
+      <c r="H220" t="s">
+        <v>46</v>
+      </c>
+      <c r="I220" t="s">
+        <v>34</v>
+      </c>
+      <c r="J220" t="s">
+        <v>25</v>
+      </c>
+      <c r="K220" t="s">
+        <v>47</v>
+      </c>
+      <c r="L220" t="s">
+        <v>48</v>
+      </c>
+      <c r="M220" t="s">
+        <v>27</v>
+      </c>
+      <c r="N220" t="s">
+        <v>24</v>
+      </c>
+      <c r="O220" t="s">
+        <v>36</v>
+      </c>
+      <c r="P220" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16">
+      <c r="A221" t="s">
+        <v>830</v>
+      </c>
+      <c r="B221" t="s">
+        <v>831</v>
+      </c>
+      <c r="C221" t="s">
+        <v>832</v>
+      </c>
+      <c r="D221" t="s">
+        <v>339</v>
+      </c>
+      <c r="E221" t="s">
+        <v>340</v>
+      </c>
+      <c r="F221" t="s">
+        <v>826</v>
+      </c>
+      <c r="G221" t="s">
+        <v>182</v>
+      </c>
+      <c r="H221" t="s">
+        <v>23</v>
+      </c>
+      <c r="I221" t="s">
+        <v>34</v>
+      </c>
+      <c r="J221" t="s">
+        <v>25</v>
+      </c>
+      <c r="K221" t="s">
+        <v>47</v>
+      </c>
+      <c r="L221" t="s">
+        <v>27</v>
+      </c>
+      <c r="M221" t="s">
+        <v>48</v>
+      </c>
+      <c r="N221" t="s">
+        <v>24</v>
+      </c>
+      <c r="O221" t="s">
+        <v>57</v>
+      </c>
+      <c r="P221" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16">
+      <c r="A222" t="s">
+        <v>833</v>
+      </c>
+      <c r="B222" t="s">
+        <v>834</v>
+      </c>
+      <c r="C222" t="s">
+        <v>835</v>
+      </c>
+      <c r="D222" t="s">
+        <v>339</v>
+      </c>
+      <c r="E222" t="s">
+        <v>340</v>
+      </c>
+      <c r="F222" t="s">
+        <v>836</v>
+      </c>
+      <c r="G222" t="s">
+        <v>182</v>
+      </c>
+      <c r="H222" t="s">
+        <v>23</v>
+      </c>
+      <c r="I222" t="s">
+        <v>34</v>
+      </c>
+      <c r="J222" t="s">
+        <v>35</v>
+      </c>
+      <c r="K222" t="s">
+        <v>26</v>
+      </c>
+      <c r="L222" t="s">
+        <v>27</v>
+      </c>
+      <c r="M222" t="s">
+        <v>27</v>
+      </c>
+      <c r="N222" t="s">
+        <v>24</v>
+      </c>
+      <c r="O222" t="s">
+        <v>36</v>
+      </c>
+      <c r="P222" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16">
+      <c r="A223" t="s">
+        <v>838</v>
+      </c>
+      <c r="B223" t="s">
+        <v>839</v>
+      </c>
+      <c r="C223" t="s">
+        <v>574</v>
+      </c>
+      <c r="D223" t="s">
+        <v>339</v>
+      </c>
+      <c r="E223" t="s">
+        <v>340</v>
+      </c>
+      <c r="F223" t="s">
+        <v>840</v>
+      </c>
+      <c r="G223" t="s">
+        <v>182</v>
+      </c>
+      <c r="H223" t="s">
+        <v>46</v>
+      </c>
+      <c r="I223" t="s">
+        <v>24</v>
+      </c>
+      <c r="J223" t="s">
+        <v>25</v>
+      </c>
+      <c r="K223" t="s">
+        <v>47</v>
+      </c>
+      <c r="L223" t="s">
+        <v>27</v>
+      </c>
+      <c r="M223" t="s">
+        <v>27</v>
+      </c>
+      <c r="N223" t="s">
+        <v>24</v>
+      </c>
+      <c r="O223" t="s">
+        <v>36</v>
+      </c>
+      <c r="P223" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16">
+      <c r="A224" t="s">
+        <v>842</v>
+      </c>
+      <c r="B224" t="s">
+        <v>843</v>
+      </c>
+      <c r="C224" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224" t="s">
+        <v>339</v>
+      </c>
+      <c r="E224" t="s">
+        <v>340</v>
+      </c>
+      <c r="F224" t="s">
+        <v>844</v>
+      </c>
+      <c r="G224" t="s">
+        <v>182</v>
+      </c>
+      <c r="H224" t="s">
+        <v>46</v>
+      </c>
+      <c r="I224" t="s">
+        <v>24</v>
+      </c>
+      <c r="J224" t="s">
+        <v>25</v>
+      </c>
+      <c r="K224" t="s">
+        <v>47</v>
+      </c>
+      <c r="L224" t="s">
+        <v>27</v>
+      </c>
+      <c r="M224" t="s">
+        <v>27</v>
+      </c>
+      <c r="N224" t="s">
+        <v>24</v>
+      </c>
+      <c r="O224" t="s">
+        <v>36</v>
+      </c>
+      <c r="P224" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16">
+      <c r="A225" t="s">
+        <v>846</v>
+      </c>
+      <c r="B225" t="s">
+        <v>847</v>
+      </c>
+      <c r="C225" t="s">
+        <v>848</v>
+      </c>
+      <c r="D225" t="s">
+        <v>339</v>
+      </c>
+      <c r="E225" t="s">
+        <v>340</v>
+      </c>
+      <c r="F225" t="s">
+        <v>849</v>
+      </c>
+      <c r="G225" t="s">
+        <v>182</v>
+      </c>
+      <c r="H225" t="s">
+        <v>46</v>
+      </c>
+      <c r="I225" t="s">
+        <v>24</v>
+      </c>
+      <c r="J225" t="s">
+        <v>25</v>
+      </c>
+      <c r="K225" t="s">
+        <v>26</v>
+      </c>
+      <c r="L225" t="s">
+        <v>48</v>
+      </c>
+      <c r="M225" t="s">
+        <v>48</v>
+      </c>
+      <c r="N225" t="s">
+        <v>24</v>
+      </c>
+      <c r="O225" t="s">
+        <v>36</v>
+      </c>
+      <c r="P225" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16">
+      <c r="A226" t="s">
+        <v>850</v>
+      </c>
+      <c r="B226" t="s">
+        <v>851</v>
+      </c>
+      <c r="C226" t="s">
+        <v>168</v>
+      </c>
+      <c r="D226" t="s">
+        <v>339</v>
+      </c>
+      <c r="E226" t="s">
+        <v>340</v>
+      </c>
+      <c r="F226" t="s">
+        <v>852</v>
+      </c>
+      <c r="G226" t="s">
+        <v>182</v>
+      </c>
+      <c r="H226" t="s">
+        <v>23</v>
+      </c>
+      <c r="I226" t="s">
+        <v>24</v>
+      </c>
+      <c r="J226" t="s">
+        <v>25</v>
+      </c>
+      <c r="K226" t="s">
+        <v>47</v>
+      </c>
+      <c r="L226" t="s">
+        <v>27</v>
+      </c>
+      <c r="M226" t="s">
+        <v>27</v>
+      </c>
+      <c r="N226" t="s">
+        <v>24</v>
+      </c>
+      <c r="O226" t="s">
+        <v>36</v>
+      </c>
+      <c r="P226" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16">
+      <c r="A227" t="s">
+        <v>853</v>
+      </c>
+      <c r="B227" t="s">
+        <v>854</v>
+      </c>
+      <c r="C227" t="s">
+        <v>855</v>
+      </c>
+      <c r="D227" t="s">
+        <v>339</v>
+      </c>
+      <c r="E227" t="s">
+        <v>340</v>
+      </c>
+      <c r="F227" t="s">
+        <v>856</v>
+      </c>
+      <c r="G227" t="s">
+        <v>182</v>
+      </c>
+      <c r="H227" t="s">
+        <v>23</v>
+      </c>
+      <c r="I227" t="s">
+        <v>34</v>
+      </c>
+      <c r="J227" t="s">
+        <v>25</v>
+      </c>
+      <c r="K227" t="s">
+        <v>47</v>
+      </c>
+      <c r="L227" t="s">
+        <v>48</v>
+      </c>
+      <c r="M227" t="s">
+        <v>48</v>
+      </c>
+      <c r="N227" t="s">
+        <v>24</v>
+      </c>
+      <c r="O227" t="s">
+        <v>57</v>
+      </c>
+      <c r="P227" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16">
+      <c r="A228" t="s">
+        <v>858</v>
+      </c>
+      <c r="B228" t="s">
+        <v>859</v>
+      </c>
+      <c r="C228" t="s">
+        <v>135</v>
+      </c>
+      <c r="D228" t="s">
+        <v>19</v>
+      </c>
+      <c r="E228" t="s">
+        <v>20</v>
+      </c>
+      <c r="F228" t="s">
+        <v>860</v>
+      </c>
+      <c r="G228" t="s">
+        <v>22</v>
+      </c>
+      <c r="H228" t="s">
+        <v>23</v>
+      </c>
+      <c r="I228" t="s">
+        <v>34</v>
+      </c>
+      <c r="J228" t="s">
+        <v>25</v>
+      </c>
+      <c r="K228" t="s">
+        <v>422</v>
+      </c>
+      <c r="L228" t="s">
+        <v>27</v>
+      </c>
+      <c r="M228" t="s">
+        <v>27</v>
+      </c>
+      <c r="N228" t="s">
+        <v>24</v>
+      </c>
+      <c r="O228" t="s">
+        <v>92</v>
+      </c>
+      <c r="P228" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16">
+      <c r="A229" t="s">
+        <v>861</v>
+      </c>
+      <c r="B229" t="s">
+        <v>862</v>
+      </c>
+      <c r="C229" t="s">
+        <v>863</v>
+      </c>
+      <c r="D229" t="s">
+        <v>339</v>
+      </c>
+      <c r="E229" t="s">
+        <v>340</v>
+      </c>
+      <c r="F229" t="s">
+        <v>864</v>
+      </c>
+      <c r="G229" t="s">
+        <v>182</v>
+      </c>
+      <c r="H229" t="s">
+        <v>46</v>
+      </c>
+      <c r="I229" t="s">
+        <v>34</v>
+      </c>
+      <c r="J229" t="s">
+        <v>35</v>
+      </c>
+      <c r="K229" t="s">
+        <v>26</v>
+      </c>
+      <c r="L229" t="s">
+        <v>27</v>
+      </c>
+      <c r="M229" t="s">
+        <v>48</v>
+      </c>
+      <c r="N229" t="s">
+        <v>24</v>
+      </c>
+      <c r="O229" t="s">
+        <v>28</v>
+      </c>
+      <c r="P229" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16">
+      <c r="A230" t="s">
+        <v>866</v>
+      </c>
+      <c r="B230" t="s">
+        <v>867</v>
+      </c>
+      <c r="C230" t="s">
+        <v>501</v>
+      </c>
+      <c r="D230" t="s">
+        <v>339</v>
+      </c>
+      <c r="E230" t="s">
+        <v>340</v>
+      </c>
+      <c r="F230" t="s">
+        <v>817</v>
+      </c>
+      <c r="G230" t="s">
+        <v>182</v>
+      </c>
+      <c r="H230" t="s">
+        <v>23</v>
+      </c>
+      <c r="I230" t="s">
+        <v>24</v>
+      </c>
+      <c r="J230" t="s">
+        <v>25</v>
+      </c>
+      <c r="K230" t="s">
+        <v>47</v>
+      </c>
+      <c r="L230" t="s">
+        <v>48</v>
+      </c>
+      <c r="M230" t="s">
+        <v>27</v>
+      </c>
+      <c r="N230" t="s">
+        <v>24</v>
+      </c>
+      <c r="O230" t="s">
+        <v>28</v>
+      </c>
+      <c r="P230" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16">
+      <c r="A231" t="s">
+        <v>868</v>
+      </c>
+      <c r="B231" t="s">
+        <v>869</v>
+      </c>
+      <c r="C231" t="s">
+        <v>870</v>
+      </c>
+      <c r="D231" t="s">
+        <v>339</v>
+      </c>
+      <c r="E231" t="s">
+        <v>340</v>
+      </c>
+      <c r="F231" t="s">
+        <v>817</v>
+      </c>
+      <c r="G231" t="s">
+        <v>22</v>
+      </c>
+      <c r="H231" t="s">
+        <v>23</v>
+      </c>
+      <c r="I231" t="s">
+        <v>24</v>
+      </c>
+      <c r="J231" t="s">
+        <v>25</v>
+      </c>
+      <c r="K231" t="s">
+        <v>26</v>
+      </c>
+      <c r="L231" t="s">
+        <v>48</v>
+      </c>
+      <c r="M231" t="s">
+        <v>27</v>
+      </c>
+      <c r="N231" t="s">
+        <v>24</v>
+      </c>
+      <c r="O231" t="s">
+        <v>36</v>
+      </c>
+      <c r="P231" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16">
+      <c r="A232" t="s">
+        <v>871</v>
+      </c>
+      <c r="B232" t="s">
+        <v>872</v>
+      </c>
+      <c r="C232" t="s">
+        <v>335</v>
+      </c>
+      <c r="D232" t="s">
+        <v>339</v>
+      </c>
+      <c r="E232" t="s">
+        <v>340</v>
+      </c>
+      <c r="F232" t="s">
+        <v>873</v>
+      </c>
+      <c r="G232" t="s">
+        <v>182</v>
+      </c>
+      <c r="H232" t="s">
+        <v>23</v>
+      </c>
+      <c r="I232" t="s">
+        <v>24</v>
+      </c>
+      <c r="J232" t="s">
+        <v>83</v>
+      </c>
+      <c r="K232" t="s">
+        <v>47</v>
+      </c>
+      <c r="L232" t="s">
+        <v>27</v>
+      </c>
+      <c r="M232" t="s">
+        <v>27</v>
+      </c>
+      <c r="N232" t="s">
+        <v>24</v>
+      </c>
+      <c r="O232" t="s">
+        <v>36</v>
+      </c>
+      <c r="P232" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16">
+      <c r="A233" t="s">
+        <v>875</v>
+      </c>
+      <c r="B233" t="s">
+        <v>876</v>
+      </c>
+      <c r="C233" t="s">
+        <v>335</v>
+      </c>
+      <c r="D233" t="s">
+        <v>339</v>
+      </c>
+      <c r="E233" t="s">
+        <v>340</v>
+      </c>
+      <c r="F233" t="s">
+        <v>877</v>
+      </c>
+      <c r="G233" t="s">
+        <v>182</v>
+      </c>
+      <c r="H233" t="s">
+        <v>23</v>
+      </c>
+      <c r="I233" t="s">
+        <v>24</v>
+      </c>
+      <c r="J233" t="s">
+        <v>35</v>
+      </c>
+      <c r="K233" t="s">
+        <v>26</v>
+      </c>
+      <c r="L233" t="s">
+        <v>27</v>
+      </c>
+      <c r="M233" t="s">
+        <v>27</v>
+      </c>
+      <c r="N233" t="s">
+        <v>24</v>
+      </c>
+      <c r="O233" t="s">
+        <v>41</v>
+      </c>
+      <c r="P233" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16">
+      <c r="A234" t="s">
+        <v>878</v>
+      </c>
+      <c r="B234" t="s">
+        <v>879</v>
+      </c>
+      <c r="C234" t="s">
+        <v>190</v>
+      </c>
+      <c r="D234" t="s">
+        <v>19</v>
+      </c>
+      <c r="E234" t="s">
+        <v>20</v>
+      </c>
+      <c r="F234" t="s">
+        <v>880</v>
+      </c>
+      <c r="G234" t="s">
+        <v>22</v>
+      </c>
+      <c r="H234" t="s">
+        <v>46</v>
+      </c>
+      <c r="I234" t="s">
+        <v>24</v>
+      </c>
+      <c r="J234" t="s">
+        <v>25</v>
+      </c>
+      <c r="K234" t="s">
+        <v>47</v>
+      </c>
+      <c r="L234" t="s">
+        <v>48</v>
+      </c>
+      <c r="M234" t="s">
+        <v>27</v>
+      </c>
+      <c r="N234" t="s">
+        <v>24</v>
+      </c>
+      <c r="O234" t="s">
+        <v>57</v>
+      </c>
+      <c r="P234" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16">
+      <c r="A235" t="s">
+        <v>881</v>
+      </c>
+      <c r="B235" t="s">
+        <v>882</v>
+      </c>
+      <c r="C235" t="s">
+        <v>186</v>
+      </c>
+      <c r="D235" t="s">
+        <v>339</v>
+      </c>
+      <c r="E235" t="s">
+        <v>340</v>
+      </c>
+      <c r="F235" t="s">
+        <v>883</v>
+      </c>
+      <c r="G235" t="s">
+        <v>182</v>
+      </c>
+      <c r="H235" t="s">
+        <v>23</v>
+      </c>
+      <c r="I235" t="s">
+        <v>24</v>
+      </c>
+      <c r="J235" t="s">
+        <v>25</v>
+      </c>
+      <c r="K235" t="s">
+        <v>47</v>
+      </c>
+      <c r="L235" t="s">
+        <v>27</v>
+      </c>
+      <c r="M235" t="s">
+        <v>27</v>
+      </c>
+      <c r="N235" t="s">
+        <v>24</v>
+      </c>
+      <c r="O235" t="s">
+        <v>57</v>
+      </c>
+      <c r="P235" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>